--- a/Chonqqing Power Grid/data-output/居配合并删除增加电商等14-18-金额.xlsx
+++ b/Chonqqing Power Grid/data-output/居配合并删除增加电商等14-18-金额.xlsx
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>738309.1199999998</v>
+        <v>46144.32</v>
       </c>
       <c r="F59">
-        <v>745545.1200000005</v>
+        <v>46596.57000000002</v>
       </c>
       <c r="G59">
-        <v>88187.04000000002</v>
+        <v>5511.690000000001</v>
       </c>
     </row>
     <row r="60" spans="1:7">
